--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.666628</v>
+        <v>1.428873</v>
       </c>
       <c r="H2">
-        <v>4.999884000000001</v>
+        <v>4.286619</v>
       </c>
       <c r="I2">
-        <v>0.03622367550391625</v>
+        <v>0.03123121905331393</v>
       </c>
       <c r="J2">
-        <v>0.03870905376456953</v>
+        <v>0.03337437700686435</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N2">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O2">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P2">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q2">
-        <v>8.972800715082666</v>
+        <v>5.415908295037001</v>
       </c>
       <c r="R2">
-        <v>80.755206435744</v>
+        <v>48.743174655333</v>
       </c>
       <c r="S2">
-        <v>0.001339729581494036</v>
+        <v>0.0007050188814804023</v>
       </c>
       <c r="T2">
-        <v>0.001479584253041588</v>
+        <v>0.0007623163156038398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.666628</v>
+        <v>1.428873</v>
       </c>
       <c r="H3">
-        <v>4.999884000000001</v>
+        <v>4.286619</v>
       </c>
       <c r="I3">
-        <v>0.03622367550391625</v>
+        <v>0.03123121905331393</v>
       </c>
       <c r="J3">
-        <v>0.03870905376456953</v>
+        <v>0.03337437700686435</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>106.106731</v>
       </c>
       <c r="O3">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P3">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q3">
-        <v>58.94681629102267</v>
+        <v>50.537681014721</v>
       </c>
       <c r="R3">
-        <v>530.521346619204</v>
+        <v>454.839129132489</v>
       </c>
       <c r="S3">
-        <v>0.008801353783242922</v>
+        <v>0.006578770799029666</v>
       </c>
       <c r="T3">
-        <v>0.009720129079042957</v>
+        <v>0.007113432630609384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.666628</v>
+        <v>1.428873</v>
       </c>
       <c r="H4">
-        <v>4.999884000000001</v>
+        <v>4.286619</v>
       </c>
       <c r="I4">
-        <v>0.03622367550391625</v>
+        <v>0.03123121905331393</v>
       </c>
       <c r="J4">
-        <v>0.03870905376456953</v>
+        <v>0.03337437700686435</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N4">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O4">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P4">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q4">
-        <v>67.08492637137735</v>
+        <v>70.65322889160601</v>
       </c>
       <c r="R4">
-        <v>603.7643373423962</v>
+        <v>635.8790600244539</v>
       </c>
       <c r="S4">
-        <v>0.01001645564032295</v>
+        <v>0.009197323457597171</v>
       </c>
       <c r="T4">
-        <v>0.0110620756915618</v>
+        <v>0.009944797105135602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.666628</v>
+        <v>1.428873</v>
       </c>
       <c r="H5">
-        <v>4.999884000000001</v>
+        <v>4.286619</v>
       </c>
       <c r="I5">
-        <v>0.03622367550391625</v>
+        <v>0.03123121905331393</v>
       </c>
       <c r="J5">
-        <v>0.03870905376456953</v>
+        <v>0.03337437700686435</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N5">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O5">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P5">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q5">
-        <v>23.57876545995</v>
+        <v>8.419469832105001</v>
       </c>
       <c r="R5">
-        <v>141.4725927597</v>
+        <v>50.51681899263</v>
       </c>
       <c r="S5">
-        <v>0.003520547327960333</v>
+        <v>0.001096009178945691</v>
       </c>
       <c r="T5">
-        <v>0.002592038702182893</v>
+        <v>0.0007900551329041186</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.666628</v>
+        <v>1.428873</v>
       </c>
       <c r="H6">
-        <v>4.999884000000001</v>
+        <v>4.286619</v>
       </c>
       <c r="I6">
-        <v>0.03622367550391625</v>
+        <v>0.03123121905331393</v>
       </c>
       <c r="J6">
-        <v>0.03870905376456953</v>
+        <v>0.03337437700686435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N6">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O6">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P6">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q6">
-        <v>84.02372615988267</v>
+        <v>104.889865672639</v>
       </c>
       <c r="R6">
-        <v>756.2135354389441</v>
+        <v>944.008791053751</v>
       </c>
       <c r="S6">
-        <v>0.01254558917089601</v>
+        <v>0.013654096736261</v>
       </c>
       <c r="T6">
-        <v>0.0138552260387403</v>
+        <v>0.01476377582261141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.05367533333334</v>
+        <v>32.05367533333333</v>
       </c>
       <c r="H7">
-        <v>96.16102600000001</v>
+        <v>96.16102599999999</v>
       </c>
       <c r="I7">
-        <v>0.6966773233034315</v>
+        <v>0.7006048513752718</v>
       </c>
       <c r="J7">
-        <v>0.7444777369815316</v>
+        <v>0.748681964758446</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N7">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O7">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P7">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q7">
-        <v>172.5707482125351</v>
+        <v>121.4941888636869</v>
       </c>
       <c r="R7">
-        <v>1553.136733912816</v>
+        <v>1093.447699773182</v>
       </c>
       <c r="S7">
-        <v>0.02576655200781</v>
+        <v>0.01581557376396827</v>
       </c>
       <c r="T7">
-        <v>0.02845632815199766</v>
+        <v>0.01710091777342587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.05367533333334</v>
+        <v>32.05367533333333</v>
       </c>
       <c r="H8">
-        <v>96.16102600000001</v>
+        <v>96.16102599999999</v>
       </c>
       <c r="I8">
-        <v>0.6966773233034315</v>
+        <v>0.7006048513752718</v>
       </c>
       <c r="J8">
-        <v>0.7444777369815316</v>
+        <v>0.748681964758446</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>106.106731</v>
       </c>
       <c r="O8">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P8">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q8">
         <v>1133.703568718445</v>
@@ -948,10 +948,10 @@
         <v>10203.33211846601</v>
       </c>
       <c r="S8">
-        <v>0.1692733691392882</v>
+        <v>0.1475804940568622</v>
       </c>
       <c r="T8">
-        <v>0.1869438541160567</v>
+        <v>0.1595744758611104</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>32.05367533333334</v>
+        <v>32.05367533333333</v>
       </c>
       <c r="H9">
-        <v>96.16102600000001</v>
+        <v>96.16102599999999</v>
       </c>
       <c r="I9">
-        <v>0.6966773233034315</v>
+        <v>0.7006048513752718</v>
       </c>
       <c r="J9">
-        <v>0.7444777369815316</v>
+        <v>0.748681964758446</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N9">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O9">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P9">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q9">
-        <v>1290.221002928489</v>
+        <v>1584.952378653124</v>
       </c>
       <c r="R9">
-        <v>11611.9890263564</v>
+        <v>14264.57140787811</v>
       </c>
       <c r="S9">
-        <v>0.1926429995689784</v>
+        <v>0.2063220594450805</v>
       </c>
       <c r="T9">
-        <v>0.2127530455087041</v>
+        <v>0.2230900140627542</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.05367533333334</v>
+        <v>32.05367533333333</v>
       </c>
       <c r="H10">
-        <v>96.16102600000001</v>
+        <v>96.16102599999999</v>
       </c>
       <c r="I10">
-        <v>0.6966773233034315</v>
+        <v>0.7006048513752718</v>
       </c>
       <c r="J10">
-        <v>0.7444777369815316</v>
+        <v>0.748681964758446</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N10">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O10">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P10">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q10">
-        <v>453.4821764749251</v>
+        <v>188.8725957290033</v>
       </c>
       <c r="R10">
-        <v>2720.89305884955</v>
+        <v>1133.23557437402</v>
       </c>
       <c r="S10">
-        <v>0.06770945948710493</v>
+        <v>0.02458659543869777</v>
       </c>
       <c r="T10">
-        <v>0.0498517767679441</v>
+        <v>0.01772317814497309</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>32.05367533333334</v>
+        <v>32.05367533333333</v>
       </c>
       <c r="H11">
-        <v>96.16102600000001</v>
+        <v>96.16102599999999</v>
       </c>
       <c r="I11">
-        <v>0.6966773233034315</v>
+        <v>0.7006048513752718</v>
       </c>
       <c r="J11">
-        <v>0.7444777369815316</v>
+        <v>0.748681964758446</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N11">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O11">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P11">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q11">
-        <v>1615.999034353069</v>
+        <v>2352.977276516328</v>
       </c>
       <c r="R11">
-        <v>14543.99130917762</v>
+        <v>21176.79548864695</v>
       </c>
       <c r="S11">
-        <v>0.2412849431002499</v>
+        <v>0.3063001286706631</v>
       </c>
       <c r="T11">
-        <v>0.2664727324368291</v>
+        <v>0.3311933789161824</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.71986</v>
+        <v>0.7312979999999999</v>
       </c>
       <c r="H12">
-        <v>5.159580000000001</v>
+        <v>2.193894</v>
       </c>
       <c r="I12">
-        <v>0.0373806575625547</v>
+        <v>0.01598415536667735</v>
       </c>
       <c r="J12">
-        <v>0.0399454186582324</v>
+        <v>0.01708102480511976</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N12">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O12">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P12">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q12">
-        <v>9.259391440586667</v>
+        <v>2.771864892362</v>
       </c>
       <c r="R12">
-        <v>83.33452296528</v>
+        <v>24.946784031258</v>
       </c>
       <c r="S12">
-        <v>0.001382520465291794</v>
+        <v>0.0003608290575781438</v>
       </c>
       <c r="T12">
-        <v>0.001526842086798077</v>
+        <v>0.0003901539163861706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.71986</v>
+        <v>0.7312979999999999</v>
       </c>
       <c r="H13">
-        <v>5.159580000000001</v>
+        <v>2.193894</v>
       </c>
       <c r="I13">
-        <v>0.0373806575625547</v>
+        <v>0.01598415536667735</v>
       </c>
       <c r="J13">
-        <v>0.0399454186582324</v>
+        <v>0.01708102480511976</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>106.106731</v>
       </c>
       <c r="O13">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P13">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q13">
-        <v>60.82957412588668</v>
+        <v>25.865213388946</v>
       </c>
       <c r="R13">
-        <v>547.4661671329801</v>
+        <v>232.786920500514</v>
       </c>
       <c r="S13">
-        <v>0.009082468503858195</v>
+        <v>0.003367018571831643</v>
       </c>
       <c r="T13">
-        <v>0.01003058942840443</v>
+        <v>0.003640658796057719</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.71986</v>
+        <v>0.7312979999999999</v>
       </c>
       <c r="H14">
-        <v>5.159580000000001</v>
+        <v>2.193894</v>
       </c>
       <c r="I14">
-        <v>0.0373806575625547</v>
+        <v>0.01598415536667735</v>
       </c>
       <c r="J14">
-        <v>0.0399454186582324</v>
+        <v>0.01708102480511976</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N14">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O14">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P14">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q14">
-        <v>69.22761496211335</v>
+        <v>36.16036203495599</v>
       </c>
       <c r="R14">
-        <v>623.0485346590202</v>
+        <v>325.443258314604</v>
       </c>
       <c r="S14">
-        <v>0.01033638064257041</v>
+        <v>0.004707195286000851</v>
       </c>
       <c r="T14">
-        <v>0.01141539773656117</v>
+        <v>0.005089752716575549</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.71986</v>
+        <v>0.7312979999999999</v>
       </c>
       <c r="H15">
-        <v>5.159580000000001</v>
+        <v>2.193894</v>
       </c>
       <c r="I15">
-        <v>0.0373806575625547</v>
+        <v>0.01598415536667735</v>
       </c>
       <c r="J15">
-        <v>0.0399454186582324</v>
+        <v>0.01708102480511976</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N15">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O15">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P15">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q15">
-        <v>24.33186983775001</v>
+        <v>4.309089365729999</v>
       </c>
       <c r="R15">
-        <v>145.9912190265</v>
+        <v>25.85453619438</v>
       </c>
       <c r="S15">
-        <v>0.00363299340192644</v>
+        <v>0.0005609381103461437</v>
       </c>
       <c r="T15">
-        <v>0.00267482826541752</v>
+        <v>0.0004043506585837342</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.71986</v>
+        <v>0.7312979999999999</v>
       </c>
       <c r="H16">
-        <v>5.159580000000001</v>
+        <v>2.193894</v>
       </c>
       <c r="I16">
-        <v>0.0373806575625547</v>
+        <v>0.01598415536667735</v>
       </c>
       <c r="J16">
-        <v>0.0399454186582324</v>
+        <v>0.01708102480511976</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N16">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O16">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P16">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q16">
-        <v>86.70743901658669</v>
+        <v>53.68269187441399</v>
       </c>
       <c r="R16">
-        <v>780.3669511492801</v>
+        <v>483.144226869726</v>
       </c>
       <c r="S16">
-        <v>0.01294629454890787</v>
+        <v>0.006988174340920568</v>
       </c>
       <c r="T16">
-        <v>0.0142977611410512</v>
+        <v>0.007556108717516586</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.862318500000001</v>
+        <v>8.813876499999999</v>
       </c>
       <c r="H17">
-        <v>17.724637</v>
+        <v>17.627753</v>
       </c>
       <c r="I17">
-        <v>0.1926199185159219</v>
+        <v>0.1926470075929463</v>
       </c>
       <c r="J17">
-        <v>0.1372239689141745</v>
+        <v>0.1372445916947329</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N17">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O17">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P17">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q17">
-        <v>47.71299760599866</v>
+        <v>33.40755045954516</v>
       </c>
       <c r="R17">
-        <v>286.277985635992</v>
+        <v>200.445302757271</v>
       </c>
       <c r="S17">
-        <v>0.007124031430572299</v>
+        <v>0.004348846504578365</v>
       </c>
       <c r="T17">
-        <v>0.005245140446474015</v>
+        <v>0.003134853766881202</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.862318500000001</v>
+        <v>8.813876499999999</v>
       </c>
       <c r="H18">
-        <v>17.724637</v>
+        <v>17.627753</v>
       </c>
       <c r="I18">
-        <v>0.1926199185159219</v>
+        <v>0.1926470075929463</v>
       </c>
       <c r="J18">
-        <v>0.1372239689141745</v>
+        <v>0.1372445916947329</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>106.106731</v>
       </c>
       <c r="O18">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P18">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q18">
-        <v>313.4505483719412</v>
+        <v>311.7372076175738</v>
       </c>
       <c r="R18">
-        <v>1880.703290231647</v>
+        <v>1870.423245705443</v>
       </c>
       <c r="S18">
-        <v>0.04680132606573197</v>
+        <v>0.04058056478389177</v>
       </c>
       <c r="T18">
-        <v>0.03445795132830696</v>
+        <v>0.02925238594671522</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.862318500000001</v>
+        <v>8.813876499999999</v>
       </c>
       <c r="H19">
-        <v>17.724637</v>
+        <v>17.627753</v>
       </c>
       <c r="I19">
-        <v>0.1926199185159219</v>
+        <v>0.1926470075929463</v>
       </c>
       <c r="J19">
-        <v>0.1372239689141745</v>
+        <v>0.1372445916947329</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N19">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O19">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P19">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q19">
-        <v>356.7250664528589</v>
+        <v>435.8181824254829</v>
       </c>
       <c r="R19">
-        <v>2140.350398717153</v>
+        <v>2614.909094552898</v>
       </c>
       <c r="S19">
-        <v>0.0532626477688263</v>
+        <v>0.05673287485018923</v>
       </c>
       <c r="T19">
-        <v>0.03921516501171963</v>
+        <v>0.04089573321175625</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.862318500000001</v>
+        <v>8.813876499999999</v>
       </c>
       <c r="H20">
-        <v>17.724637</v>
+        <v>17.627753</v>
       </c>
       <c r="I20">
-        <v>0.1926199185159219</v>
+        <v>0.1926470075929463</v>
       </c>
       <c r="J20">
-        <v>0.1372239689141745</v>
+        <v>0.1372445916947329</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N20">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O20">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P20">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q20">
-        <v>125.3804264316188</v>
+        <v>51.93475368045249</v>
       </c>
       <c r="R20">
-        <v>501.521705726475</v>
+        <v>207.73901472181</v>
       </c>
       <c r="S20">
-        <v>0.01872056134584828</v>
+        <v>0.006760635512108995</v>
       </c>
       <c r="T20">
-        <v>0.009188802197439557</v>
+        <v>0.003248923391422465</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.862318500000001</v>
+        <v>8.813876499999999</v>
       </c>
       <c r="H21">
-        <v>17.724637</v>
+        <v>17.627753</v>
       </c>
       <c r="I21">
-        <v>0.1926199185159219</v>
+        <v>0.1926470075929463</v>
       </c>
       <c r="J21">
-        <v>0.1372239689141745</v>
+        <v>0.1372445916947329</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N21">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O21">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P21">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q21">
-        <v>446.7973793705987</v>
+        <v>647.0038429869061</v>
       </c>
       <c r="R21">
-        <v>2680.784276223592</v>
+        <v>3882.023057921437</v>
       </c>
       <c r="S21">
-        <v>0.06671135190494303</v>
+        <v>0.08422408594217787</v>
       </c>
       <c r="T21">
-        <v>0.04911690993023432</v>
+        <v>0.06071269537795771</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.706874666666667</v>
+        <v>2.723709333333333</v>
       </c>
       <c r="H22">
-        <v>5.120623999999999</v>
+        <v>8.171128</v>
       </c>
       <c r="I22">
-        <v>0.03709842511417578</v>
+        <v>0.05953276661179054</v>
       </c>
       <c r="J22">
-        <v>0.03964382168149202</v>
+        <v>0.06361804173483705</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N22">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O22">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P22">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q22">
-        <v>9.189480933731552</v>
+        <v>10.32377263176622</v>
       </c>
       <c r="R22">
-        <v>82.70532840358398</v>
+        <v>92.913953685896</v>
       </c>
       <c r="S22">
-        <v>0.001372082122006893</v>
+        <v>0.001343902857471867</v>
       </c>
       <c r="T22">
-        <v>0.001515314082516079</v>
+        <v>0.001453122890391558</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.706874666666667</v>
+        <v>2.723709333333333</v>
       </c>
       <c r="H23">
-        <v>5.120623999999999</v>
+        <v>8.171128</v>
       </c>
       <c r="I23">
-        <v>0.03709842511417578</v>
+        <v>0.05953276661179054</v>
       </c>
       <c r="J23">
-        <v>0.03964382168149202</v>
+        <v>0.06361804173483705</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>106.106731</v>
       </c>
       <c r="O23">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P23">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q23">
-        <v>60.37029703557155</v>
+        <v>96.33463118472977</v>
       </c>
       <c r="R23">
-        <v>543.332673320144</v>
+        <v>867.0116806625679</v>
       </c>
       <c r="S23">
-        <v>0.009013893805329184</v>
+        <v>0.01254041431756209</v>
       </c>
       <c r="T23">
-        <v>0.009954856201712929</v>
+        <v>0.01355958356552938</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.706874666666667</v>
+        <v>2.723709333333333</v>
       </c>
       <c r="H24">
-        <v>5.120623999999999</v>
+        <v>8.171128</v>
       </c>
       <c r="I24">
-        <v>0.03709842511417578</v>
+        <v>0.05953276661179054</v>
       </c>
       <c r="J24">
-        <v>0.03964382168149202</v>
+        <v>0.06361804173483705</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N24">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O24">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P24">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q24">
-        <v>68.70493075749511</v>
+        <v>134.678770585072</v>
       </c>
       <c r="R24">
-        <v>618.344376817456</v>
+        <v>1212.108935265648</v>
       </c>
       <c r="S24">
-        <v>0.01025833862281066</v>
+        <v>0.01753188403947938</v>
       </c>
       <c r="T24">
-        <v>0.0113292088928519</v>
+        <v>0.01895671392304575</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.706874666666667</v>
+        <v>2.723709333333333</v>
       </c>
       <c r="H25">
-        <v>5.120623999999999</v>
+        <v>8.171128</v>
       </c>
       <c r="I25">
-        <v>0.03709842511417578</v>
+        <v>0.05953276661179054</v>
       </c>
       <c r="J25">
-        <v>0.03964382168149202</v>
+        <v>0.06361804173483705</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N25">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O25">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P25">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q25">
-        <v>24.1481586982</v>
+        <v>16.04914402009333</v>
       </c>
       <c r="R25">
-        <v>144.8889521892</v>
+        <v>96.29486412055999</v>
       </c>
       <c r="S25">
-        <v>0.003605563477210581</v>
+        <v>0.002089206269635846</v>
       </c>
       <c r="T25">
-        <v>0.002654632704944069</v>
+        <v>0.001505998461262026</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.706874666666667</v>
+        <v>2.723709333333333</v>
       </c>
       <c r="H26">
-        <v>5.120623999999999</v>
+        <v>8.171128</v>
       </c>
       <c r="I26">
-        <v>0.03709842511417578</v>
+        <v>0.05953276661179054</v>
       </c>
       <c r="J26">
-        <v>0.03964382168149202</v>
+        <v>0.06361804173483705</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N26">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O26">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P26">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q26">
-        <v>86.05277817319822</v>
+        <v>199.9404468449235</v>
       </c>
       <c r="R26">
-        <v>774.4750035587839</v>
+        <v>1799.464021604312</v>
       </c>
       <c r="S26">
-        <v>0.01284854708681846</v>
+        <v>0.02602735912764136</v>
       </c>
       <c r="T26">
-        <v>0.01418980979946704</v>
+        <v>0.02814262289460834</v>
       </c>
     </row>
   </sheetData>
